--- a/samples/吸尘器-sample-10.xlsx
+++ b/samples/吸尘器-sample-10.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13380"/>
+    <workbookView windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="产品详情" sheetId="1" r:id="rId1"/>
@@ -3863,8 +3863,8 @@
   <sheetPr/>
   <dimension ref="A1:CL13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
+      <selection activeCell="BC7" sqref="BC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
